--- a/main/surveydata/survey_result_teacher_each.xlsx
+++ b/main/surveydata/survey_result_teacher_each.xlsx
@@ -1,142 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daeun\eduWeb\surveySite\main\surveydata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22F4823-6441-4ACC-AD82-798D06313FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>순번</t>
-  </si>
-  <si>
-    <t>타임스탬프</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>학교 아이디</t>
-  </si>
-  <si>
-    <t>문항1</t>
-  </si>
-  <si>
-    <t>문항2</t>
-  </si>
-  <si>
-    <t>문항3</t>
-  </si>
-  <si>
-    <t>문항4</t>
-  </si>
-  <si>
-    <t>문항5</t>
-  </si>
-  <si>
-    <t>문항6</t>
-  </si>
-  <si>
-    <t>문항7</t>
-  </si>
-  <si>
-    <t>문항8</t>
-  </si>
-  <si>
-    <t>문항9</t>
-  </si>
-  <si>
-    <t>문항10</t>
-  </si>
-  <si>
-    <t>문항11</t>
-  </si>
-  <si>
-    <t>문항12</t>
-  </si>
-  <si>
-    <t>문항13</t>
-  </si>
-  <si>
-    <t>문항14</t>
-  </si>
-  <si>
-    <t>문항15</t>
-  </si>
-  <si>
-    <t>문항16</t>
-  </si>
-  <si>
-    <t>문항17</t>
-  </si>
-  <si>
-    <t>문항18</t>
-  </si>
-  <si>
-    <t>문항19</t>
-  </si>
-  <si>
-    <t>문항20</t>
-  </si>
-  <si>
-    <t>문항21</t>
-  </si>
-  <si>
-    <t>문항22</t>
-  </si>
-  <si>
-    <t>문항23</t>
-  </si>
-  <si>
-    <t>문항24</t>
-  </si>
-  <si>
-    <t>문항25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <b/>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -155,24 +58,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,112 +392,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AC3" sqref="A2:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col width="30.625" customWidth="1" min="2" max="2"/>
+    <col width="28.125" customWidth="1" min="3" max="3"/>
+    <col width="15.5" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>순번</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>타임스탬프</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>학교 아이디</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>문항1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>문항2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>문항3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>문항4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>문항5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>문항6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>문항7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>문항8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>문항9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>문항10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>문항11</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>문항12</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>문항13</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>문항14</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>문항15</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>문항16</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>문항17</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>문항18</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>문항19</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>문항20</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>문항21</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>문항22</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>문항23</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>문항24</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>문항25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-10-08 21:24:18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A10732</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/surveydata/survey_result_teacher_each.xlsx
+++ b/main/surveydata/survey_result_teacher_each.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AC3" sqref="A2:AC3"/>
@@ -652,6 +652,101 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-10-11 20:50:24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A10672</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/main/surveydata/survey_result_teacher_each.xlsx
+++ b/main/surveydata/survey_result_teacher_each.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AC3" sqref="A2:AC3"/>
@@ -747,6 +747,101 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-10-20 20:50:46</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A10673</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
